--- a/src/usernames.xlsx
+++ b/src/usernames.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-100" windowWidth="24580" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="-100" windowWidth="24580" windowHeight="15300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="usernames" sheetId="1" r:id="rId1"/>
+    <sheet name="insulins" sheetId="2" r:id="rId2"/>
+    <sheet name="reminderTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>password</t>
   </si>
@@ -31,6 +33,15 @@
   </si>
   <si>
     <t>asdfg12!</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Humalog</t>
   </si>
 </sst>
 </file>
@@ -79,7 +90,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -93,18 +104,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -442,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -479,4 +496,92 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>